--- a/Code/Polygons_analysis/Medellin_ANT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Medellin_ANT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,123 +535,123 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4342164915447536</v>
+        <v>0.1817062096792489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5350201237748282</v>
+        <v>0.08778044874175737</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4818700228987607</v>
+        <v>0.1971911934599065</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4235001622090069</v>
+        <v>0.1918148148775967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01133978652085996</v>
+        <v>0.1885734066081008</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3282373500307317</v>
+        <v>-0.2659351754583875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.65650609854088</v>
+        <v>-0.1541703021825348</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5240616802989118</v>
+        <v>0.08730207405343193</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5097976507619502</v>
+        <v>0.1032649237855121</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.3255920311852458</v>
+        <v>-0.2821471111116197</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.5105340695335824</v>
+        <v>-0.3211404907448396</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6485341980605451</v>
+        <v>-0.1296657006775454</v>
       </c>
       <c r="N2" t="n">
-        <v>0.22438207978898</v>
+        <v>-0.2311250269463587</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08550724333565284</v>
+        <v>-0.0105480476934796</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2609837627498429</v>
+        <v>-0.3376444027050243</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.001618806505488276</v>
+        <v>0.1365511325701953</v>
       </c>
       <c r="R2" t="n">
-        <v>0.06437306053709602</v>
+        <v>-0.2687965044786799</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002906226784519729</v>
+        <v>-0.3275733906678377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.04538909107308449</v>
+        <v>0.5337738905840963</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1290240342218874</v>
+        <v>0.654878490267464</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05423140082212496</v>
+        <v>0.5947547884281692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03198570444009494</v>
+        <v>0.5376916458862054</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07585956054652532</v>
+        <v>0.1021342281682475</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2333158558434534</v>
+        <v>-0.3798161969859021</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3427924594652136</v>
+        <v>0.7739353903132571</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.06003929549209407</v>
+        <v>0.6520419621196863</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.04194536471045821</v>
+        <v>0.6457976701095947</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2266852221110215</v>
+        <v>-0.3767119560696476</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.2873541638790974</v>
+        <v>-0.5220662083658402</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.327710585632757</v>
+        <v>0.7640758509118971</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.1256781727889794</v>
+        <v>0.2313647523865014</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.02856399685347894</v>
+        <v>0.1502356054098124</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2590931399212929</v>
+        <v>0.3070468422584974</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05699606076492231</v>
+        <v>0.05498831237134517</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1714776865766345</v>
+        <v>-0.08572953298884578</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07677886489515942</v>
+        <v>-0.1433639410566503</v>
       </c>
     </row>
     <row r="4">
@@ -661,58 +661,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.07338540606723</v>
+        <v>-0.6029168446862386</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.087196744849896</v>
+        <v>-0.6574118908534042</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.043808032673277</v>
+        <v>-0.6111145101915652</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.9868888199471832</v>
+        <v>-0.5760398348468263</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6375296977776255</v>
+        <v>-0.2412181397532969</v>
       </c>
       <c r="G4" t="n">
-        <v>1.052451249884903</v>
+        <v>0.3788155544043011</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.441571358355284</v>
+        <v>-0.7570827121810635</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.022131197661781</v>
+        <v>-0.6358072940089736</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.018120936532597</v>
+        <v>-0.6320122345882577</v>
       </c>
       <c r="K4" t="n">
-        <v>1.016754301905963</v>
+        <v>0.3882686746328324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2657249822761594</v>
+        <v>0.3250356239365562</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.444711714251985</v>
+        <v>-0.7579271024186155</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.1831508545691612</v>
+        <v>0.001989950591591974</v>
       </c>
       <c r="O4" t="n">
-        <v>-1.025548542314472</v>
+        <v>-0.2075675677155902</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07626608621367159</v>
+        <v>-0.1024329606631279</v>
       </c>
       <c r="Q4" t="n">
-        <v>-1.00190367444121</v>
+        <v>-0.211485958406069</v>
       </c>
       <c r="R4" t="n">
-        <v>2.551645972242171</v>
+        <v>0.4680970450629104</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1023903580562384</v>
+        <v>0.4934775247769995</v>
       </c>
     </row>
     <row r="5">
@@ -722,58 +722,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4901975691971115</v>
+        <v>-0.2907617646983552</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5988442369484275</v>
+        <v>-0.4010506136050885</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5705447403068622</v>
+        <v>-0.3806069379799926</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.495576032151962</v>
+        <v>-0.3250230141642019</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00391965862819574</v>
+        <v>0.02555802284394608</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4140041408039776</v>
+        <v>0.2895189670218703</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.6940359781527493</v>
+        <v>-0.4274799475459184</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6014105051205331</v>
+        <v>-0.4172058289650999</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.5873575540164937</v>
+        <v>-0.4152818016715396</v>
       </c>
       <c r="K5" t="n">
-        <v>0.410804783801361</v>
+        <v>0.2798304057846249</v>
       </c>
       <c r="L5" t="n">
-        <v>0.683281941680285</v>
+        <v>0.5735810130209599</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.686952974118504</v>
+        <v>-0.4177337489196868</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2477819324688628</v>
+        <v>-0.2989373265012438</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.06040038172242264</v>
+        <v>-0.03000934645706941</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2772985708208845</v>
+        <v>-0.2885098570776111</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.03041250596195984</v>
+        <v>0.08283486432905338</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1474062949020788</v>
+        <v>-0.2471422150751858</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02288438915819418</v>
+        <v>-0.1678705673961153</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.363636363636364</v>
+        <v>29.54545454545455</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.514450867052023</v>
       </c>
       <c r="D2" t="n">
-        <v>4.166666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="E2" t="n">
-        <v>4.918032786885246</v>
+        <v>55.73770491803278</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.90909090909091</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="C3" t="n">
-        <v>82.08092485549133</v>
+        <v>75.14450867052022</v>
       </c>
       <c r="D3" t="n">
-        <v>39.58333333333333</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.639344262295082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -859,13 +859,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.90909090909091</v>
+        <v>8.636363636363637</v>
       </c>
       <c r="C4" t="n">
         <v>5.780346820809249</v>
       </c>
       <c r="D4" t="n">
-        <v>10.41666666666667</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="E4" t="n">
         <v>1.639344262295082</v>
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46.81818181818182</v>
+        <v>32.72727272727273</v>
       </c>
       <c r="C5" t="n">
-        <v>12.13872832369942</v>
+        <v>11.5606936416185</v>
       </c>
       <c r="D5" t="n">
-        <v>45.83333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>91.80327868852459</v>
+        <v>42.62295081967213</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2855,7 +2855,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2907,7 +2907,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3050,7 +3050,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3427,7 +3427,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3791,7 +3791,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4558,7 +4558,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4974,7 +4974,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5351,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5429,7 +5429,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5585,7 +5585,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6378,7 +6378,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6547,7 +6547,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6859,7 +6859,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7158,7 +7158,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7314,7 +7314,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7444,7 +7444,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7457,7 +7457,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7470,7 +7470,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7587,7 +7587,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7600,7 +7600,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7847,7 +7847,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8172,12 +8172,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8214,12 +8214,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8340,12 +8340,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8466,12 +8466,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8592,12 +8592,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8613,12 +8613,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8634,12 +8634,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8865,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -9012,12 +9012,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9600,12 +9600,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9852,12 +9852,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9873,12 +9873,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -9978,12 +9978,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10398,12 +10398,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -10797,12 +10797,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -10944,12 +10944,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11427,12 +11427,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -11637,12 +11637,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -11679,12 +11679,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -12225,12 +12225,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -12918,12 +12918,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13107,12 +13107,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -13212,12 +13212,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -13254,12 +13254,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -13821,12 +13821,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -14241,12 +14241,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -14577,12 +14577,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -14997,12 +14997,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -15354,12 +15354,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -15438,12 +15438,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15459,12 +15459,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15522,12 +15522,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15543,12 +15543,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -15606,12 +15606,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15648,12 +15648,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15711,12 +15711,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15732,12 +15732,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15816,12 +15816,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15942,12 +15942,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -15963,12 +15963,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16026,12 +16026,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16047,12 +16047,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16068,12 +16068,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16089,12 +16089,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16110,12 +16110,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16131,12 +16131,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16173,12 +16173,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16194,12 +16194,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16215,12 +16215,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16341,12 +16341,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -16467,12 +16467,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16530,12 +16530,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -16614,12 +16614,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16677,12 +16677,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16698,12 +16698,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -16824,12 +16824,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17034,12 +17034,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17160,12 +17160,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17391,12 +17391,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -17433,12 +17433,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17454,12 +17454,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17496,12 +17496,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17517,12 +17517,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -17559,12 +17559,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17601,12 +17601,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17664,12 +17664,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -17685,12 +17685,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17748,12 +17748,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17769,12 +17769,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -17790,12 +17790,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -17853,12 +17853,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17874,12 +17874,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17895,12 +17895,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17937,12 +17937,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -17958,12 +17958,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -18021,12 +18021,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -18105,12 +18105,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -18126,12 +18126,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18147,12 +18147,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18168,12 +18168,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18189,12 +18189,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18210,12 +18210,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18231,12 +18231,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18273,12 +18273,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18294,12 +18294,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18315,12 +18315,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18336,12 +18336,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18357,12 +18357,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -18378,12 +18378,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18399,12 +18399,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18420,12 +18420,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18441,12 +18441,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18462,12 +18462,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18483,12 +18483,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -18504,12 +18504,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18525,12 +18525,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18546,12 +18546,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18567,12 +18567,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18609,12 +18609,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>organico_alto_std</t>
+          <t>cul_de_sac_alto_std</t>
         </is>
       </c>
     </row>
@@ -18630,12 +18630,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18651,12 +18651,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>organico_bajo_std</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -18755,11 +18755,11 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18772,12 +18772,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -18829,15 +18829,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18850,7 +18850,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -18876,12 +18876,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -18907,15 +18907,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18954,7 +18954,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -18963,11 +18963,11 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18985,15 +18985,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19006,7 +19006,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -19141,15 +19141,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -19171,11 +19171,11 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -19297,15 +19297,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19323,15 +19323,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19349,15 +19349,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -19379,11 +19379,11 @@
         </is>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -19431,11 +19431,11 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19630,20 +19630,20 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19687,15 +19687,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -20228,7 +20228,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -20237,11 +20237,11 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -20592,7 +20592,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -20878,20 +20878,20 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21008,20 +21008,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21034,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -21225,11 +21225,11 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21294,7 +21294,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -21320,7 +21320,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -21329,11 +21329,11 @@
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21346,7 +21346,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -21424,7 +21424,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -21528,12 +21528,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -21589,11 +21589,11 @@
         </is>
       </c>
       <c r="E112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21632,7 +21632,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -21710,7 +21710,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -21745,11 +21745,11 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21866,7 +21866,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -21875,11 +21875,11 @@
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21918,7 +21918,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -21927,11 +21927,11 @@
         </is>
       </c>
       <c r="E125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21996,7 +21996,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -22005,11 +22005,11 @@
         </is>
       </c>
       <c r="E128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22027,15 +22027,15 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22178,7 +22178,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -22187,11 +22187,11 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22209,15 +22209,15 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22282,7 +22282,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -22291,11 +22291,11 @@
         </is>
       </c>
       <c r="E139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -22464,7 +22464,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -22594,7 +22594,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -22807,15 +22807,15 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -23036,7 +23036,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -23045,11 +23045,11 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23062,20 +23062,20 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -23119,15 +23119,15 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23140,7 +23140,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -23149,11 +23149,11 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23192,7 +23192,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -23400,7 +23400,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E197" t="b">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -23894,7 +23894,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -24180,7 +24180,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -24189,11 +24189,11 @@
         </is>
       </c>
       <c r="E212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -24232,7 +24232,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -24518,7 +24518,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -24527,11 +24527,11 @@
         </is>
       </c>
       <c r="E225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -24653,7 +24653,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E230" t="b">
@@ -24726,7 +24726,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -24887,7 +24887,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E239" t="b">
@@ -24908,7 +24908,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -25017,15 +25017,15 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -25069,15 +25069,15 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -25220,7 +25220,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -25558,7 +25558,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -25567,11 +25567,11 @@
         </is>
       </c>
       <c r="E265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -25584,7 +25584,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -25740,7 +25740,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -25766,12 +25766,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E273" t="b">
@@ -25948,7 +25948,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -25957,11 +25957,11 @@
         </is>
       </c>
       <c r="E280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -25983,11 +25983,11 @@
         </is>
       </c>
       <c r="E281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26130,7 +26130,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -26156,7 +26156,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -26165,11 +26165,11 @@
         </is>
       </c>
       <c r="E288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26182,7 +26182,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -26191,11 +26191,11 @@
         </is>
       </c>
       <c r="E289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26286,12 +26286,12 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E293" t="b">
@@ -26312,7 +26312,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -26321,11 +26321,11 @@
         </is>
       </c>
       <c r="E294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26364,7 +26364,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -26468,7 +26468,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -26520,7 +26520,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -26546,7 +26546,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -26624,7 +26624,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -26650,7 +26650,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -26659,11 +26659,11 @@
         </is>
       </c>
       <c r="E307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26676,7 +26676,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -26685,11 +26685,11 @@
         </is>
       </c>
       <c r="E308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26702,20 +26702,20 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -26780,7 +26780,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -26789,11 +26789,11 @@
         </is>
       </c>
       <c r="E312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27118,7 +27118,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -27127,11 +27127,11 @@
         </is>
       </c>
       <c r="E325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27227,7 +27227,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E329" t="b">
@@ -27669,7 +27669,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E346" t="b">
@@ -27773,15 +27773,15 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27799,15 +27799,15 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27872,12 +27872,12 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E354" t="b">
@@ -27903,15 +27903,15 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27924,7 +27924,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -27933,11 +27933,11 @@
         </is>
       </c>
       <c r="E356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27981,15 +27981,15 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28002,7 +28002,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -28011,11 +28011,11 @@
         </is>
       </c>
       <c r="E359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28028,12 +28028,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E360" t="b">
@@ -28111,15 +28111,15 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28132,12 +28132,12 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E364" t="b">
@@ -28210,7 +28210,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -28219,11 +28219,11 @@
         </is>
       </c>
       <c r="E367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28241,15 +28241,15 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28340,12 +28340,12 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E372" t="b">
@@ -28366,20 +28366,20 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28392,12 +28392,12 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E374" t="b">
@@ -28423,15 +28423,15 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28501,15 +28501,15 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28527,15 +28527,15 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28553,15 +28553,15 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28579,15 +28579,15 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28600,12 +28600,12 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E382" t="b">
@@ -28626,12 +28626,12 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E383" t="b">
@@ -28652,7 +28652,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -28661,11 +28661,11 @@
         </is>
       </c>
       <c r="E384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28678,12 +28678,12 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E385" t="b">
@@ -28704,12 +28704,12 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E386" t="b">
@@ -28730,12 +28730,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E387" t="b">
@@ -28756,12 +28756,12 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E388" t="b">
@@ -28891,15 +28891,15 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -29025,11 +29025,11 @@
         </is>
       </c>
       <c r="E398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29042,12 +29042,12 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E399" t="b">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -29077,11 +29077,11 @@
         </is>
       </c>
       <c r="E400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29120,20 +29120,20 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -29198,7 +29198,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -29207,11 +29207,11 @@
         </is>
       </c>
       <c r="E405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29229,15 +29229,15 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29307,15 +29307,15 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29328,12 +29328,12 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E410" t="b">
@@ -29380,7 +29380,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -29389,11 +29389,11 @@
         </is>
       </c>
       <c r="E412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -29484,12 +29484,12 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E416" t="b">
@@ -29536,7 +29536,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -29545,11 +29545,11 @@
         </is>
       </c>
       <c r="E418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29588,7 +29588,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -29614,7 +29614,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -29744,12 +29744,12 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E426" t="b">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -29857,11 +29857,11 @@
         </is>
       </c>
       <c r="E430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29905,15 +29905,15 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29926,7 +29926,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -29978,7 +29978,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -29987,11 +29987,11 @@
         </is>
       </c>
       <c r="E435" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30186,12 +30186,12 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E443" t="b">
@@ -30212,7 +30212,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -30221,11 +30221,11 @@
         </is>
       </c>
       <c r="E444" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30238,12 +30238,12 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E445" t="b">
@@ -30264,12 +30264,12 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E446" t="b">
@@ -30316,12 +30316,12 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E448" t="b">
@@ -30347,15 +30347,15 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30394,12 +30394,12 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E451" t="b">
@@ -30420,7 +30420,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -30429,11 +30429,11 @@
         </is>
       </c>
       <c r="E452" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30451,15 +30451,15 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30498,7 +30498,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -30524,20 +30524,20 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30550,12 +30550,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E457" t="b">
@@ -30633,15 +30633,15 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E460" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30659,15 +30659,15 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E461" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E462" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30758,12 +30758,12 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E465" t="b">
@@ -30784,12 +30784,12 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E466" t="b">
@@ -30810,12 +30810,12 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E467" t="b">
@@ -30862,20 +30862,20 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E469" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30893,15 +30893,15 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E470" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30966,20 +30966,20 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E473" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30992,7 +30992,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -31001,11 +31001,11 @@
         </is>
       </c>
       <c r="E474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31070,12 +31070,12 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E477" t="b">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E478" t="b">
@@ -31127,15 +31127,15 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31153,15 +31153,15 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31179,15 +31179,15 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E481" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31205,7 +31205,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E482" t="b">
@@ -31231,15 +31231,15 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E483" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31252,12 +31252,12 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E484" t="b">
@@ -31283,7 +31283,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E485" t="b">
@@ -31304,20 +31304,20 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E486" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31330,20 +31330,20 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E487" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E488" t="b">
@@ -31387,15 +31387,15 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E489" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31413,15 +31413,15 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31439,7 +31439,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E491" t="b">
@@ -31460,12 +31460,12 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E492" t="b">
@@ -31491,15 +31491,15 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E493" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31512,12 +31512,12 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E494" t="b">
@@ -31543,15 +31543,15 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E495" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31569,15 +31569,15 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E496" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31595,15 +31595,15 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E497" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31621,15 +31621,15 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31647,7 +31647,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E499" t="b">
@@ -31668,12 +31668,12 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E500" t="b">
@@ -31694,12 +31694,12 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E501" t="b">
@@ -31725,15 +31725,15 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E502" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31751,15 +31751,15 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E503" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31797,31 +31797,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89.60396039603961</v>
+        <v>63.10679611650486</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.34262948207171</v>
+        <v>53.73134328358209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.34920634920635</v>
+        <v>50.19920318725099</v>
       </c>
     </row>
     <row r="5">
@@ -31831,7 +31831,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>39.0625</v>
       </c>
     </row>
     <row r="6">

--- a/Code/Polygons_analysis/Medellin_ANT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Medellin_ANT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,62 +535,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1817062096792489</v>
+        <v>-0.2907617646983552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08778044874175737</v>
+        <v>-0.4010506136050885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1971911934599065</v>
+        <v>-0.3806069379799926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1918148148775967</v>
+        <v>-0.3250230141642019</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1885734066081008</v>
+        <v>0.02555802284394608</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2659351754583875</v>
+        <v>0.2895189670218703</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1541703021825348</v>
+        <v>-0.4274799475459184</v>
       </c>
       <c r="I2" t="n">
-        <v>0.08730207405343193</v>
+        <v>-0.4172058289650999</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1032649237855121</v>
+        <v>-0.4152818016715396</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.2821471111116197</v>
+        <v>0.2798304057846249</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.3211404907448396</v>
+        <v>0.5735810130209599</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1296657006775454</v>
+        <v>-0.4177337489196868</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2311250269463587</v>
+        <v>-0.2989373265012438</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0105480476934796</v>
+        <v>-0.03000934645706941</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.3376444027050243</v>
+        <v>-0.2885098570776111</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1365511325701953</v>
+        <v>0.08283486432905338</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2687965044786799</v>
+        <v>-0.2471422150751858</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.3275733906678377</v>
+        <v>-0.1678705673961153</v>
       </c>
     </row>
     <row r="3">
@@ -657,123 +657,123 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.6029168446862386</v>
+        <v>0.1817062096792489</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.6574118908534042</v>
+        <v>0.08778044874175737</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.6111145101915652</v>
+        <v>0.1971911934599065</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5760398348468263</v>
+        <v>0.1918148148775967</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2412181397532969</v>
+        <v>0.1885734066081008</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3788155544043011</v>
+        <v>-0.2659351754583875</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.7570827121810635</v>
+        <v>-0.1541703021825348</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.6358072940089736</v>
+        <v>0.08730207405343193</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.6320122345882577</v>
+        <v>0.1032649237855121</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3882686746328324</v>
+        <v>-0.2821471111116197</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3250356239365562</v>
+        <v>-0.3211404907448396</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.7579271024186155</v>
+        <v>-0.1296657006775454</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001989950591591974</v>
+        <v>-0.2311250269463587</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2075675677155902</v>
+        <v>-0.0105480476934796</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1024329606631279</v>
+        <v>-0.3376444027050243</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.211485958406069</v>
+        <v>0.1365511325701953</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4680970450629104</v>
+        <v>-0.2687965044786799</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4934775247769995</v>
+        <v>-0.3275733906678377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.2907617646983552</v>
+        <v>-0.6029168446862386</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.4010506136050885</v>
+        <v>-0.6574118908534042</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3806069379799926</v>
+        <v>-0.6111145101915652</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3250230141642019</v>
+        <v>-0.5760398348468263</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02555802284394608</v>
+        <v>-0.2412181397532969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2895189670218703</v>
+        <v>0.3788155544043011</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4274799475459184</v>
+        <v>-0.7570827121810635</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.4172058289650999</v>
+        <v>-0.6358072940089736</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4152818016715396</v>
+        <v>-0.6320122345882577</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2798304057846249</v>
+        <v>0.3882686746328324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5735810130209599</v>
+        <v>0.3250356239365562</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4177337489196868</v>
+        <v>-0.7579271024186155</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2989373265012438</v>
+        <v>0.001989950591591974</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.03000934645706941</v>
+        <v>-0.2075675677155902</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.2885098570776111</v>
+        <v>-0.1024329606631279</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.08283486432905338</v>
+        <v>-0.211485958406069</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2471422150751858</v>
+        <v>0.4680970450629104</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.1678705673961153</v>
+        <v>0.4934775247769995</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Medellin_ANT/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Medellin_ANT/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,62 +535,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2907617646983552</v>
+        <v>-0.6621028349562901</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4010506136050885</v>
+        <v>-0.6872803627352475</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3806069379799926</v>
+        <v>-0.6589654131411342</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3250230141642019</v>
+        <v>-0.6326927027370909</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02555802284394608</v>
+        <v>-0.3138803927353412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2895189670218703</v>
+        <v>0.5103740803307057</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.4274799475459184</v>
+        <v>-0.7605292287746498</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4172058289650999</v>
+        <v>-0.6570062231930323</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.4152818016715396</v>
+        <v>-0.6668344777094313</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2798304057846249</v>
+        <v>0.5186520225248216</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5735810130209599</v>
+        <v>0.3527400136222488</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4177337489196868</v>
+        <v>-0.7565608424788516</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2989373265012438</v>
+        <v>0.07850976239333833</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.03000934645706941</v>
+        <v>-0.206018011666089</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.2885098570776111</v>
+        <v>-0.0938715667335618</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.08283486432905338</v>
+        <v>-0.2041340499980011</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.2471422150751858</v>
+        <v>0.6382181434279258</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.1678705673961153</v>
+        <v>0.6660968116847958</v>
       </c>
     </row>
     <row r="3">
@@ -600,180 +600,180 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5337738905840963</v>
+        <v>0.5124693646494086</v>
       </c>
       <c r="C3" t="n">
-        <v>0.654878490267464</v>
+        <v>0.6359766854723622</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5947547884281692</v>
+        <v>0.5717094824385087</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5376916458862054</v>
+        <v>0.5136995425056428</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1021342281682475</v>
+        <v>0.08865748851843686</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3798161969859021</v>
+        <v>-0.3752554665189099</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7739353903132571</v>
+        <v>0.7639667882822697</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6520419621196863</v>
+        <v>0.6292089391920805</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6457976701095947</v>
+        <v>0.6218385381275509</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.3767119560696476</v>
+        <v>-0.3715821089736823</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.5220662083658402</v>
+        <v>-0.5219882840954208</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7640758509118971</v>
+        <v>0.753152318323089</v>
       </c>
       <c r="N3" t="n">
-        <v>0.2313647523865014</v>
+        <v>0.2196256503919016</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1502356054098124</v>
+        <v>0.1363666691954006</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3070468422584974</v>
+        <v>0.2912758775527635</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.05498831237134517</v>
+        <v>0.04491697210847891</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.08572953298884578</v>
+        <v>-0.06629102331023506</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.1433639410566503</v>
+        <v>-0.1363102132545311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1817062096792489</v>
+        <v>-0.371438068016582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08778044874175737</v>
+        <v>-0.4854067489202403</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1971911934599065</v>
+        <v>-0.4562362824419132</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1918148148775967</v>
+        <v>-0.3895107618196095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1885734066081008</v>
+        <v>0.03769657851094609</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2659351754583875</v>
+        <v>0.3543302887984155</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.1541703021825348</v>
+        <v>-0.539505219484431</v>
       </c>
       <c r="I4" t="n">
-        <v>0.08730207405343193</v>
+        <v>-0.4920256199426453</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1032649237855121</v>
+        <v>-0.4840455530005274</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.2821471111116197</v>
+        <v>0.3466144127504291</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.3211404907448396</v>
+        <v>0.6099440747356475</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1296657006775454</v>
+        <v>-0.5314285419330922</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2311250269463587</v>
+        <v>-0.348016714275407</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0105480476934796</v>
+        <v>-0.09510169734260333</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.3376444027050243</v>
+        <v>-0.3066672403838007</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1365511325701953</v>
+        <v>0.004113160004767301</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.2687965044786799</v>
+        <v>-0.2412180455301321</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.3275733906678377</v>
+        <v>-0.1377889784568133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.6029168446862386</v>
+        <v>0.01210928237490165</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.6574118908534042</v>
+        <v>-0.09882327131529549</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6111145101915652</v>
+        <v>0.01744049028030681</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.5760398348468263</v>
+        <v>0.01600143500037456</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2412181397532969</v>
+        <v>-0.0004971616053912647</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3788155544043011</v>
+        <v>-0.2575786322925576</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.7570827121810635</v>
+        <v>-0.3185069268226818</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.6358072940089736</v>
+        <v>-0.09736703880178051</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.6320122345882577</v>
+        <v>-0.07884452748297893</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3882686746328324</v>
+        <v>-0.2615195309670407</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3250356239365562</v>
+        <v>-0.1916200106388324</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.7579271024186155</v>
+        <v>-0.3061592880530813</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001989950591591974</v>
+        <v>0.0191491576108689</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2075675677155902</v>
+        <v>0.03291015424553444</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.1024329606631279</v>
+        <v>-0.117126659988315</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.211485958406069</v>
+        <v>0.09850081600374437</v>
       </c>
       <c r="R5" t="n">
-        <v>0.4680970450629104</v>
+        <v>0.02294863970715263</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4934775247769995</v>
+        <v>-0.03346768868404638</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29.54545454545455</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="C2" t="n">
-        <v>7.514450867052023</v>
+        <v>4.624277456647398</v>
       </c>
       <c r="D2" t="n">
-        <v>33.33333333333333</v>
+        <v>22.91666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>55.73770491803278</v>
+        <v>37.70491803278689</v>
       </c>
     </row>
     <row r="3">
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.09090909090909</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="C3" t="n">
         <v>75.14450867052022</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>27.08333333333333</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.636363636363637</v>
+        <v>16.36363636363636</v>
       </c>
       <c r="C4" t="n">
-        <v>5.780346820809249</v>
+        <v>8.670520231213873</v>
       </c>
       <c r="D4" t="n">
         <v>8.333333333333332</v>
       </c>
       <c r="E4" t="n">
-        <v>1.639344262295082</v>
+        <v>6.557377049180328</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +878,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.72727272727273</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="C5" t="n">
         <v>11.5606936416185</v>
       </c>
       <c r="D5" t="n">
-        <v>33.33333333333333</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>42.62295081967213</v>
+        <v>55.73770491803278</v>
       </c>
     </row>
   </sheetData>
@@ -1633,7 +1633,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2582,7 +2582,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2595,7 +2595,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2608,7 +2608,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2712,7 +2712,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3895,7 +3895,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4142,7 +4142,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -4649,7 +4649,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5078,7 +5078,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5377,7 +5377,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6196,7 +6196,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6560,7 +6560,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6716,7 +6716,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6898,7 +6898,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -6963,7 +6963,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7119,7 +7119,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7288,7 +7288,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7301,7 +7301,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7535,7 +7535,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7730,7 +7730,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -7951,7 +7951,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8029,7 +8029,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8042,7 +8042,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -8172,12 +8172,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8214,12 +8214,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8256,12 +8256,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8277,12 +8277,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8340,12 +8340,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8466,12 +8466,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8592,12 +8592,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -8613,12 +8613,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -8634,12 +8634,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -8865,12 +8865,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -8907,12 +8907,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -9012,12 +9012,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -9600,12 +9600,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -9852,12 +9852,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -9873,12 +9873,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -9978,12 +9978,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -10398,12 +10398,12 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -10797,12 +10797,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -10944,12 +10944,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -11427,12 +11427,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -11637,12 +11637,12 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -11679,12 +11679,12 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -12225,12 +12225,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -12918,12 +12918,12 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -13107,12 +13107,12 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -13212,12 +13212,12 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -13254,12 +13254,12 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -13821,12 +13821,12 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -14241,12 +14241,12 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -14577,12 +14577,12 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -14997,12 +14997,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -15354,12 +15354,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -15438,12 +15438,12 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15459,12 +15459,12 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15522,12 +15522,12 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15543,12 +15543,12 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -15606,12 +15606,12 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15648,12 +15648,12 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15711,12 +15711,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15732,12 +15732,12 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15816,12 +15816,12 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15900,12 +15900,12 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E372" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15921,12 +15921,12 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15942,12 +15942,12 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -15963,12 +15963,12 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16026,12 +16026,12 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16047,12 +16047,12 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16068,12 +16068,12 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16089,12 +16089,12 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16110,12 +16110,12 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16131,12 +16131,12 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16173,12 +16173,12 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16194,12 +16194,12 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16215,12 +16215,12 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16236,12 +16236,12 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16341,12 +16341,12 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -16467,12 +16467,12 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16530,12 +16530,12 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -16614,12 +16614,12 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16677,12 +16677,12 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16698,12 +16698,12 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -16824,12 +16824,12 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17034,12 +17034,12 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17160,12 +17160,12 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17391,12 +17391,12 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -17433,12 +17433,12 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17454,12 +17454,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17496,12 +17496,12 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17517,12 +17517,12 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -17559,12 +17559,12 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17601,12 +17601,12 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17664,12 +17664,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -17685,12 +17685,12 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17748,12 +17748,12 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17769,12 +17769,12 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -17790,12 +17790,12 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -17853,12 +17853,12 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17874,12 +17874,12 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17895,12 +17895,12 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17937,12 +17937,12 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -17958,12 +17958,12 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -18021,12 +18021,12 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -18105,12 +18105,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -18126,12 +18126,12 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18147,12 +18147,12 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18168,12 +18168,12 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18189,12 +18189,12 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18210,12 +18210,12 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18231,12 +18231,12 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18252,12 +18252,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18273,12 +18273,12 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18294,12 +18294,12 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18315,12 +18315,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18336,12 +18336,12 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18357,12 +18357,12 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -18378,12 +18378,12 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18399,12 +18399,12 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18420,12 +18420,12 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18441,12 +18441,12 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18462,12 +18462,12 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18483,12 +18483,12 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -18504,12 +18504,12 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18525,12 +18525,12 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18546,12 +18546,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18567,12 +18567,12 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18588,12 +18588,12 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18609,12 +18609,12 @@
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>cul_de_sac_alto_std</t>
+          <t>organico_alto_std</t>
         </is>
       </c>
     </row>
@@ -18630,12 +18630,12 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18651,12 +18651,12 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico_bajo_std</t>
         </is>
       </c>
     </row>
@@ -18777,15 +18777,15 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18829,15 +18829,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -18876,12 +18876,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E8" t="b">
@@ -18907,15 +18907,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -18954,7 +18954,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -18985,15 +18985,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19141,15 +19141,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19162,7 +19162,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -19171,11 +19171,11 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19214,7 +19214,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -19297,15 +19297,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19323,15 +19323,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19349,15 +19349,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19370,7 +19370,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -19379,11 +19379,11 @@
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19422,7 +19422,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -19431,11 +19431,11 @@
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19635,15 +19635,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -19687,15 +19687,15 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -19734,7 +19734,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -19817,7 +19817,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E44" t="b">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E72" t="b">
@@ -20592,7 +20592,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -20774,7 +20774,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -20800,7 +20800,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -20826,7 +20826,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -20857,7 +20857,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -20883,15 +20883,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21008,20 +21008,20 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -21034,7 +21034,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -21216,7 +21216,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -21528,12 +21528,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E110" t="b">
@@ -21632,7 +21632,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -21918,7 +21918,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -22027,15 +22027,15 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22178,7 +22178,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -22187,11 +22187,11 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22209,15 +22209,15 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -22594,7 +22594,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -22807,15 +22807,15 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23067,15 +23067,15 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -23119,15 +23119,15 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -23140,7 +23140,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -23149,11 +23149,11 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -23400,7 +23400,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -23738,7 +23738,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E197" t="b">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -23894,7 +23894,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -24232,7 +24232,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -24310,7 +24310,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -24653,7 +24653,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E230" t="b">
@@ -24887,7 +24887,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E239" t="b">
@@ -24908,7 +24908,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -25017,15 +25017,15 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -25069,15 +25069,15 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -25740,7 +25740,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -25766,20 +25766,20 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -25974,7 +25974,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -26130,7 +26130,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -26291,15 +26291,15 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -26364,7 +26364,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -26707,15 +26707,15 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27118,7 +27118,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -27227,7 +27227,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E329" t="b">
@@ -27669,7 +27669,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E346" t="b">
@@ -27773,15 +27773,15 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -27799,15 +27799,15 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -27877,15 +27877,15 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -27903,15 +27903,15 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -27981,15 +27981,15 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28002,7 +28002,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -28011,11 +28011,11 @@
         </is>
       </c>
       <c r="E359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28033,15 +28033,15 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28111,15 +28111,15 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28137,15 +28137,15 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28210,7 +28210,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -28241,15 +28241,15 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28345,15 +28345,15 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28371,15 +28371,15 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28397,15 +28397,15 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28423,15 +28423,15 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28501,15 +28501,15 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28527,15 +28527,15 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28553,15 +28553,15 @@
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28579,15 +28579,15 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -28600,12 +28600,12 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E382" t="b">
@@ -28631,15 +28631,15 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28683,15 +28683,15 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28709,15 +28709,15 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28730,12 +28730,12 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E387" t="b">
@@ -28756,20 +28756,20 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -28891,15 +28891,15 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29016,7 +29016,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -29042,20 +29042,20 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29125,15 +29125,15 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29198,7 +29198,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -29207,11 +29207,11 @@
         </is>
       </c>
       <c r="E405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -29229,15 +29229,15 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -29307,15 +29307,15 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -29333,15 +29333,15 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29380,7 +29380,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -29406,7 +29406,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -29489,15 +29489,15 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -29536,7 +29536,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -29744,12 +29744,12 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E426" t="b">
@@ -29848,7 +29848,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -29905,15 +29905,15 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E432" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30186,20 +30186,20 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E443" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30212,7 +30212,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -30243,15 +30243,15 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E445" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30264,20 +30264,20 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E446" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30316,12 +30316,12 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E448" t="b">
@@ -30347,15 +30347,15 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30399,15 +30399,15 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E451" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30420,7 +30420,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -30429,11 +30429,11 @@
         </is>
       </c>
       <c r="E452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30451,15 +30451,15 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30529,15 +30529,15 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E456" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30555,15 +30555,15 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30633,15 +30633,15 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E460" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30659,15 +30659,15 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E461" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30680,20 +30680,20 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30763,15 +30763,15 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E465" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30789,15 +30789,15 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E466" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30815,15 +30815,15 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -30862,20 +30862,20 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E469" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30893,15 +30893,15 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -30971,15 +30971,15 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E473" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31070,12 +31070,12 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E477" t="b">
@@ -31101,7 +31101,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E478" t="b">
@@ -31127,15 +31127,15 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E479" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31153,15 +31153,15 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E480" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31179,15 +31179,15 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E481" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31205,7 +31205,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E482" t="b">
@@ -31231,15 +31231,15 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E483" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31257,15 +31257,15 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E484" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31283,7 +31283,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E485" t="b">
@@ -31309,15 +31309,15 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31335,15 +31335,15 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E487" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -31361,7 +31361,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E488" t="b">
@@ -31387,15 +31387,15 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E489" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31413,15 +31413,15 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E490" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31439,7 +31439,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E491" t="b">
@@ -31460,12 +31460,12 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E492" t="b">
@@ -31491,15 +31491,15 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E493" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31512,12 +31512,12 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E494" t="b">
@@ -31543,15 +31543,15 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E495" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31569,15 +31569,15 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E496" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31595,15 +31595,15 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31621,15 +31621,15 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E498" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31647,7 +31647,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E499" t="b">
@@ -31668,12 +31668,12 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E500" t="b">
@@ -31694,12 +31694,12 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E501" t="b">
@@ -31725,15 +31725,15 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E502" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31751,15 +31751,15 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E503" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -31797,21 +31797,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.10679611650486</v>
+        <v>87.01298701298701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.73134328358209</v>
+        <v>61.61137440758294</v>
       </c>
     </row>
     <row r="4">
@@ -31821,7 +31821,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.19920318725099</v>
+        <v>52.58964143426294</v>
       </c>
     </row>
     <row r="5">
@@ -31831,7 +31831,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
